--- a/TempWork/大一下学期课内任务总表.xlsx
+++ b/TempWork/大一下学期课内任务总表.xlsx
@@ -16,145 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>高数</t>
-  </si>
-  <si>
-    <t>英语</t>
-  </si>
-  <si>
-    <t>ACM</t>
-  </si>
-  <si>
-    <t>洛谷</t>
-  </si>
-  <si>
-    <t>python</t>
-  </si>
-  <si>
-    <t>焊接</t>
-  </si>
-  <si>
-    <t>阅读</t>
-  </si>
-  <si>
-    <t>清洁卫生</t>
-  </si>
-  <si>
-    <t>报告撰写</t>
-  </si>
-  <si>
-    <t>7.1（共7题3对2错2未完成）8.1（没做习题）</t>
-  </si>
-  <si>
-    <t>DAY1</t>
-  </si>
-  <si>
-    <t>算法理论（排序、动态规划）理论</t>
-  </si>
-  <si>
-    <t>序列专题（3题2对1错）</t>
-  </si>
-  <si>
-    <t>类&amp;对象 正则表达式</t>
-  </si>
-  <si>
-    <t>×</t>
-  </si>
-  <si>
-    <t>《明朝那些事》84页</t>
-  </si>
-  <si>
-    <t>打扫庭院卫生</t>
-  </si>
-  <si>
-    <t>DAY2</t>
-  </si>
-  <si>
-    <t>算法理论（模板，关键字）</t>
-  </si>
-  <si>
-    <t>线性规划（2题2对）</t>
-  </si>
-  <si>
-    <t>模板</t>
-  </si>
-  <si>
-    <t>《明朝那些事》40页</t>
-  </si>
-  <si>
-    <t>打扫庭院卫生、倒垃圾、修剪花朵</t>
-  </si>
-  <si>
-    <t>保障措施</t>
-  </si>
-  <si>
-    <t>总</t>
-  </si>
-  <si>
-    <t>计划目标制定</t>
-  </si>
-  <si>
-    <t>早起追赶进度</t>
-  </si>
-  <si>
-    <t>温故复习</t>
-  </si>
-  <si>
-    <t>每日总结</t>
-  </si>
-  <si>
-    <t>高等数学</t>
-  </si>
-  <si>
-    <t>B站宋浩教程指导</t>
-  </si>
-  <si>
-    <t>辅导习题精解参考</t>
-  </si>
-  <si>
-    <t>大学英语</t>
-  </si>
-  <si>
-    <t>先背诵前十天，并反复巩固</t>
-  </si>
-  <si>
-    <t>有道翻译及时查询</t>
-  </si>
-  <si>
-    <t>算法理论</t>
-  </si>
-  <si>
-    <t>OI WIKI 理论教程</t>
-  </si>
-  <si>
-    <t>CSDN/菜鸟 C++编程实现查询</t>
-  </si>
-  <si>
-    <t>算法题单</t>
-  </si>
-  <si>
-    <t>洛谷（CSDN）题解参考</t>
-  </si>
-  <si>
-    <t>洛谷题单</t>
-  </si>
-  <si>
-    <t>ACM训练营重做巩固</t>
-  </si>
-  <si>
-    <t>CSDN 进阶教程指导</t>
-  </si>
-  <si>
-    <t>K210 官网说明</t>
-  </si>
-  <si>
-    <t>工作室群询问学长</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>已完成</t>
   </si>
@@ -163,6 +25,9 @@
   </si>
   <si>
     <t>进度</t>
+  </si>
+  <si>
+    <t>高等数学</t>
   </si>
   <si>
     <t>课程</t>
@@ -180,6 +45,15 @@
     <t>离散数学</t>
   </si>
   <si>
+    <t>大学英语</t>
+  </si>
+  <si>
+    <t>英语单词</t>
+  </si>
+  <si>
+    <t>阅读练习</t>
+  </si>
+  <si>
     <t>领航在线练习</t>
   </si>
   <si>
@@ -187,6 +61,9 @@
   </si>
   <si>
     <t>大学物理</t>
+  </si>
+  <si>
+    <t>机械技术</t>
   </si>
   <si>
     <t>劳动教育</t>
@@ -219,8 +96,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="177" formatCode="[$-409]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1028,7 +905,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,7 +915,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1062,6 +939,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1074,7 +957,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1083,7 +966,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1620,7 +1503,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1632,310 +1515,220 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:10">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>9</v>
-      </c>
+      <c r="A1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" ht="61" customHeight="1" spans="1:10">
-      <c r="A2" s="18">
-        <v>45321</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" ht="61" customHeight="1" spans="1:10">
-      <c r="A3" s="18">
-        <v>45322</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" ht="61" customHeight="1" spans="1:10">
-      <c r="A4" s="18">
-        <v>45323</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" ht="61" customHeight="1" spans="1:10">
-      <c r="A5" s="18">
-        <v>45324</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" ht="61" customHeight="1" spans="1:10">
-      <c r="A6" s="18">
-        <v>45325</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" ht="61" customHeight="1" spans="1:10">
-      <c r="A7" s="18">
-        <v>45326</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" ht="61" customHeight="1" spans="1:10">
-      <c r="A8" s="18">
-        <v>45327</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
     </row>
     <row r="9" ht="61" customHeight="1" spans="1:10">
-      <c r="A9" s="18">
-        <v>45328</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" ht="61" customHeight="1" spans="1:10">
-      <c r="A10" s="18">
-        <v>45329</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
     </row>
     <row r="11" ht="61" customHeight="1" spans="1:10">
-      <c r="A11" s="18">
-        <v>45330</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" ht="61" customHeight="1" spans="1:10">
-      <c r="A12" s="18">
-        <v>45331</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" ht="61" customHeight="1" spans="1:10">
-      <c r="A13" s="18">
-        <v>45332</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" ht="61" customHeight="1" spans="1:10">
-      <c r="A14" s="18">
-        <v>45333</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" ht="61" customHeight="1" spans="1:10">
-      <c r="A15" s="18">
-        <v>45334</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" ht="61" customHeight="1" spans="1:10">
-      <c r="A16" s="18">
-        <v>45335</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" ht="61" customHeight="1" spans="1:10">
-      <c r="A17" s="18">
-        <v>45336</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" ht="61" customHeight="1" spans="1:10">
-      <c r="A18" s="18">
-        <v>45337</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1947,124 +1740,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B21" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="25.375" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2073,10 +1759,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2092,13 +1778,13 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -2111,15 +1797,15 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -2128,7 +1814,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="6">
-        <f t="shared" ref="E2:E19" si="0">C2/D2</f>
+        <f>C2/D2</f>
         <v>0</v>
       </c>
       <c r="F2" s="7"/>
@@ -2137,18 +1823,18 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
       <c r="N2" s="8"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
       <c r="Q2" s="8"/>
-      <c r="R2" s="11"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="9"/>
       <c r="B3" s="4" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -2157,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" si="0"/>
+        <f>C3/D3</f>
         <v>0</v>
       </c>
       <c r="F3" s="7"/>
@@ -2165,18 +1851,18 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
+      <c r="K3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="9"/>
       <c r="B4" s="4" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -2185,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" si="0"/>
+        <f>C4/D4</f>
         <v>0</v>
       </c>
       <c r="F4" s="7"/>
@@ -2196,14 +1882,14 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="N4" s="8"/>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
@@ -2212,7 +1898,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" si="0"/>
+        <f>C5/D5</f>
         <v>0</v>
       </c>
       <c r="F5" s="7"/>
@@ -2220,18 +1906,18 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="11"/>
+      <c r="K5" s="13"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="9"/>
       <c r="B6" s="4" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
@@ -2240,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="0"/>
+        <f>C6/D6</f>
         <v>0</v>
       </c>
       <c r="F6" s="7"/>
@@ -2249,18 +1935,18 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="11"/>
+      <c r="R6" s="13"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="9"/>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
@@ -2269,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" si="0"/>
+        <f>C7/D7</f>
         <v>0</v>
       </c>
       <c r="F7" s="7"/>
@@ -2287,10 +1973,10 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
@@ -2299,7 +1985,7 @@
         <v>86</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" si="0"/>
+        <f>C8/D8</f>
         <v>0</v>
       </c>
       <c r="F8" s="7"/>
@@ -2318,7 +2004,7 @@
     <row r="9" spans="1:17">
       <c r="A9" s="9"/>
       <c r="B9" s="4" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
@@ -2327,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="0"/>
+        <f>C9/D9</f>
         <v>0</v>
       </c>
       <c r="F9" s="7"/>
@@ -2346,7 +2032,7 @@
     <row r="10" spans="1:17">
       <c r="A10" s="9"/>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C10" s="5">
         <v>0</v>
@@ -2355,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="6">
-        <f t="shared" si="0"/>
+        <f>C10/D10</f>
         <v>0</v>
       </c>
       <c r="F10" s="7"/>
@@ -2364,29 +2050,29 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="11"/>
+      <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C11" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D11" s="5">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>C11/D11</f>
+        <v>0.5</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
@@ -2394,82 +2080,82 @@
       <c r="I11" s="8"/>
       <c r="J11" s="11"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
       <c r="N11" s="8"/>
       <c r="O11" s="11"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="11"/>
+      <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="9"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="C12" s="5">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D12" s="5">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="0"/>
-        <v>0.309210526315789</v>
+        <f>C12/D12</f>
+        <v>0.0879120879120879</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="J12" s="11"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
       <c r="N12" s="8"/>
+      <c r="O12" s="11"/>
       <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="9"/>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" spans="2:17">
       <c r="B13" s="4" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="C13" s="5">
         <v>0</v>
       </c>
       <c r="D13" s="5">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" si="0"/>
+        <f>C13/D13</f>
         <v>0</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="11"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
+      <c r="O13" s="13"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
+      <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A14" s="9"/>
       <c r="B14" s="4" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D14" s="5">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>C14/D14</f>
+        <v>0.309210526315789</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
@@ -2477,18 +2163,15 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="M14" s="11"/>
+      <c r="L14" s="8"/>
       <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A15" s="9"/>
       <c r="B15" s="4" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -2497,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="0"/>
+        <f>C15/D15</f>
         <v>0</v>
       </c>
       <c r="F15" s="7"/>
@@ -2506,7 +2189,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="M15" s="11"/>
+      <c r="L15" s="13"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
@@ -2514,19 +2197,19 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
       </c>
       <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10">
-        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E16" s="6">
+        <f>C16/D16</f>
         <v>0</v>
       </c>
       <c r="F16" s="7"/>
@@ -2535,19 +2218,16 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="11"/>
+      <c r="M16" s="13"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="4" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -2556,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="0"/>
+        <f>C17/D17</f>
         <v>0</v>
       </c>
       <c r="F17" s="7"/>
@@ -2565,8 +2245,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
+      <c r="M17" s="13"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
@@ -2574,19 +2253,19 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
       </c>
       <c r="D18" s="5">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="0"/>
+        <f>C18/D18</f>
         <v>0</v>
       </c>
       <c r="F18" s="7"/>
@@ -2595,19 +2274,18 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="11"/>
+      <c r="M18" s="13"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" ht="14.25" spans="1:17">
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C19" s="5">
         <v>0</v>
@@ -2615,8 +2293,8 @@
       <c r="D19" s="5">
         <v>1</v>
       </c>
-      <c r="E19" s="12">
-        <f t="shared" si="0"/>
+      <c r="E19" s="6">
+        <f t="shared" ref="E19:E25" si="0">C19/D19</f>
         <v>0</v>
       </c>
       <c r="F19" s="7"/>
@@ -2625,19 +2303,18 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="14"/>
+      <c r="M19" s="13"/>
       <c r="N19" s="8"/>
-      <c r="O19" s="14"/>
+      <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" ht="15" spans="1:5">
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C20" s="5">
         <v>0</v>
@@ -2645,17 +2322,29 @@
       <c r="D20" s="5">
         <v>1</v>
       </c>
-      <c r="E20" s="12">
-        <f>C20/D20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" spans="1:5">
+      <c r="E20" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C21" s="5">
         <v>0</v>
@@ -2664,21 +2353,129 @@
         <v>1</v>
       </c>
       <c r="E21" s="6">
-        <f>C21/D21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="13"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="4"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" ht="15" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="15"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4">
@@ -2690,7 +2487,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7fc4c905-15e6-46e8-8fb8-42d5d9d05e1e}</x14:id>
+          <x14:id>{2b7ac8f2-bf6f-476b-8a8b-11a9bf2f9233}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2704,7 +2501,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{abf6db5b-af0c-45fb-bb28-50562ad20b62}</x14:id>
+          <x14:id>{fabc81db-5e7e-4f07-b0cf-6326cdb0a03c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2718,7 +2515,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2b68e613-66d5-47cd-8c2c-acf800c1f8be}</x14:id>
+          <x14:id>{6acc83e6-b3b5-44ea-8d09-d556c5befa18}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2732,12 +2529,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2551efa8-dcb7-4a4b-9f95-e4e4049643a3}</x14:id>
+          <x14:id>{c705b083-45aa-4b7a-972d-46e67aee2b7c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H13">
     <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2746,12 +2543,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9f0263f3-2e7e-48b7-92d6-b7b555233492}</x14:id>
+          <x14:id>{730c164e-8073-4727-9002-086781b72ad4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
+  <conditionalFormatting sqref="J13">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2760,12 +2557,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c82b36a0-4192-49e5-bc15-be873ff21f29}</x14:id>
+          <x14:id>{c9cbc671-ec00-4548-972b-5c276d275eee}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
+  <conditionalFormatting sqref="E20">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2774,12 +2571,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e0745428-1a53-45a5-aee1-5708ae8a7730}</x14:id>
+          <x14:id>{6b7a56fe-9386-4f78-802f-b92c5b2b4d86}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10:L11">
+  <conditionalFormatting sqref="L10:L13">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2788,12 +2585,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{34ac52e1-48e7-464b-ada9-76526d3b62e0}</x14:id>
+          <x14:id>{8088c6e9-5494-4016-9b30-9474f33134b2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M17">
+  <conditionalFormatting sqref="M16:M21">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2802,7 +2599,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{acca9a10-aad5-4346-bac2-3b2e5515e3b1}</x14:id>
+          <x14:id>{1ffd8046-623f-49eb-ae08-55140237d821}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2816,12 +2613,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3788f1da-7c36-48a7-8894-51b243c828cd}</x14:id>
+          <x14:id>{b34e3d63-a168-475d-a8aa-2af5dc512004}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q10:Q11">
+  <conditionalFormatting sqref="Q10:Q13">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2830,12 +2627,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{60c09ab0-8f48-44e7-9153-df494927e0ef}</x14:id>
+          <x14:id>{e9e03813-1e82-4b62-a429-3c2cb05f6f4d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3 E17:E21 E5:E15">
+  <conditionalFormatting sqref="E2:E3 E5:E19 E21:E25">
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2844,12 +2641,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{72fcbd42-0aa6-4dea-8316-1129c1da568b}</x14:id>
+          <x14:id>{07d00782-2609-4556-8e9e-c4f6ff9cd8b6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2 F11:G11 F13:K19 F12:L12 L4:L5 F5:J10 L7:M9 M5 F2:J3 L18:L19 L16 I11 O13:O18 N11:N19 N7:O10 K6 P7:P19 O5:P5 K8:K11 Q12:Q19 Q6:Q9 Q2 N2">
+  <conditionalFormatting sqref="K2 N2 Q2 Q6:Q9 L4:L5 F5:J12 L7:M9 M5 F2:J3 K8:K13 O5:P5 N7:P10 K6 F13:G13 F15:K23 I13 N11:O12 F14:L14 N13:N23 P11:P16 Q14:Q16 O15:O22 L20 P17:Q23 L22:L23">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2858,7 +2655,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{11bb6682-53f3-4211-af85-259954027760}</x14:id>
+          <x14:id>{d1459abe-952b-465c-aa7f-2f8b078e87ee}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2872,7 +2669,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bae2499d-05fa-4eea-9b4c-c068f2af401f}</x14:id>
+          <x14:id>{e4e408d3-9cee-4e49-9634-723499c5fd8a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2886,7 +2683,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{53f3cf55-d671-4292-aed4-ab09b0856af9}</x14:id>
+          <x14:id>{9755aa23-30fe-4127-ac00-28ce80eace49}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2900,7 +2697,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{273b3eb0-3563-4631-a392-557dca355be5}</x14:id>
+          <x14:id>{7b1b0a3f-068b-4fff-a7fa-36553c96e5c4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2914,7 +2711,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2a9b4f9e-10b6-4b91-b5cd-008b97060548}</x14:id>
+          <x14:id>{cb8d4b1c-9c2a-414c-a293-a1f7dd936948}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2928,7 +2725,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a5d04d82-5265-4764-b1ca-29a28c9d2d25}</x14:id>
+          <x14:id>{d6877341-06b2-4964-9ce8-726e478f6c40}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2942,7 +2739,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a1a96358-a604-44cf-83ab-15bbb7a73ba0}</x14:id>
+          <x14:id>{ff5fab1e-adcd-4240-9b7c-edb4ae49fc9e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2956,12 +2753,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{42498afe-372f-4510-803b-a3255cf29d01}</x14:id>
+          <x14:id>{76dab711-fb7a-4738-996a-cbacb6974a57}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M10:M11 M18:M19">
+  <conditionalFormatting sqref="M10:M13 M22:M23">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2970,12 +2767,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c693d97f-a889-4ef8-bb61-90f52da70a63}</x14:id>
+          <x14:id>{094a064a-3c03-4018-9028-0f1c8bfc0801}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O11 O19">
+  <conditionalFormatting sqref="O13 O23">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2984,12 +2781,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a4048b48-6a63-47bd-8eb5-33709c13353f}</x14:id>
+          <x14:id>{d2b7db5d-bf3c-4126-94ba-6104dbdcee9d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13 L17">
+  <conditionalFormatting sqref="L15 L21">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2998,7 +2795,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{95179e9f-6ba9-49d0-bda5-57b493f20b9c}</x14:id>
+          <x14:id>{5da44a48-981e-4a03-8221-2233bcd69876}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3009,7 +2806,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7fc4c905-15e6-46e8-8fb8-42d5d9d05e1e}">
+          <x14:cfRule type="dataBar" id="{2b7ac8f2-bf6f-476b-8a8b-11a9bf2f9233}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3024,7 +2821,7 @@
           <xm:sqref>E4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{abf6db5b-af0c-45fb-bb28-50562ad20b62}">
+          <x14:cfRule type="dataBar" id="{fabc81db-5e7e-4f07-b0cf-6326cdb0a03c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3039,7 +2836,7 @@
           <xm:sqref>F4:K4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2b68e613-66d5-47cd-8c2c-acf800c1f8be}">
+          <x14:cfRule type="dataBar" id="{6acc83e6-b3b5-44ea-8d09-d556c5befa18}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3054,7 +2851,7 @@
           <xm:sqref>N4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2551efa8-dcb7-4a4b-9f95-e4e4049643a3}">
+          <x14:cfRule type="dataBar" id="{c705b083-45aa-4b7a-972d-46e67aee2b7c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3069,7 +2866,7 @@
           <xm:sqref>K7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9f0263f3-2e7e-48b7-92d6-b7b555233492}">
+          <x14:cfRule type="dataBar" id="{730c164e-8073-4727-9002-086781b72ad4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3081,10 +2878,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H11</xm:sqref>
+          <xm:sqref>H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c82b36a0-4192-49e5-bc15-be873ff21f29}">
+          <x14:cfRule type="dataBar" id="{c9cbc671-ec00-4548-972b-5c276d275eee}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3096,10 +2893,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J11</xm:sqref>
+          <xm:sqref>J13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e0745428-1a53-45a5-aee1-5708ae8a7730}">
+          <x14:cfRule type="dataBar" id="{6b7a56fe-9386-4f78-802f-b92c5b2b4d86}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3111,10 +2908,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E16</xm:sqref>
+          <xm:sqref>E20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{34ac52e1-48e7-464b-ada9-76526d3b62e0}">
+          <x14:cfRule type="dataBar" id="{8088c6e9-5494-4016-9b30-9474f33134b2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3126,10 +2923,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L10:L11</xm:sqref>
+          <xm:sqref>L10:L13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{acca9a10-aad5-4346-bac2-3b2e5515e3b1}">
+          <x14:cfRule type="dataBar" id="{1ffd8046-623f-49eb-ae08-55140237d821}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3141,10 +2938,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M14:M17</xm:sqref>
+          <xm:sqref>M16:M21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3788f1da-7c36-48a7-8894-51b243c828cd}">
+          <x14:cfRule type="dataBar" id="{b34e3d63-a168-475d-a8aa-2af5dc512004}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3159,7 +2956,7 @@
           <xm:sqref>Q3:Q5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{60c09ab0-8f48-44e7-9153-df494927e0ef}">
+          <x14:cfRule type="dataBar" id="{e9e03813-1e82-4b62-a429-3c2cb05f6f4d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3171,10 +2968,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q10:Q11</xm:sqref>
+          <xm:sqref>Q10:Q13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{72fcbd42-0aa6-4dea-8316-1129c1da568b}">
+          <x14:cfRule type="dataBar" id="{07d00782-2609-4556-8e9e-c4f6ff9cd8b6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3186,10 +2983,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E3 E17:E21 E5:E15</xm:sqref>
+          <xm:sqref>E2:E3 E5:E19 E21:E25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{11bb6682-53f3-4211-af85-259954027760}">
+          <x14:cfRule type="dataBar" id="{d1459abe-952b-465c-aa7f-2f8b078e87ee}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3201,10 +2998,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K2 F11:G11 F13:K19 F12:L12 L4:L5 F5:J10 L7:M9 M5 F2:J3 L18:L19 L16 I11 O13:O18 N11:N19 N7:O10 K6 P7:P19 O5:P5 K8:K11 Q12:Q19 Q6:Q9 Q2 N2</xm:sqref>
+          <xm:sqref>K2 N2 Q2 Q6:Q9 L4:L5 F5:J12 L7:M9 M5 F2:J3 K8:K13 O5:P5 N7:P10 K6 F13:G13 F15:K23 I13 N11:O12 F14:L14 N13:N23 P11:P16 Q14:Q16 O15:O22 L20 P17:Q23 L22:L23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{bae2499d-05fa-4eea-9b4c-c068f2af401f}">
+          <x14:cfRule type="dataBar" id="{e4e408d3-9cee-4e49-9634-723499c5fd8a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3219,7 +3016,7 @@
           <xm:sqref>L2 L6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{53f3cf55-d671-4292-aed4-ab09b0856af9}">
+          <x14:cfRule type="dataBar" id="{9755aa23-30fe-4127-ac00-28ce80eace49}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3234,7 +3031,7 @@
           <xm:sqref>M2:M3 M6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{273b3eb0-3563-4631-a392-557dca355be5}">
+          <x14:cfRule type="dataBar" id="{7b1b0a3f-068b-4fff-a7fa-36553c96e5c4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3249,7 +3046,7 @@
           <xm:sqref>O2:O3 O6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2a9b4f9e-10b6-4b91-b5cd-008b97060548}">
+          <x14:cfRule type="dataBar" id="{cb8d4b1c-9c2a-414c-a293-a1f7dd936948}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3264,7 +3061,7 @@
           <xm:sqref>P2:P3 P6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a5d04d82-5265-4764-b1ca-29a28c9d2d25}">
+          <x14:cfRule type="dataBar" id="{d6877341-06b2-4964-9ce8-726e478f6c40}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3279,7 +3076,7 @@
           <xm:sqref>R2:R3 R5:R6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a1a96358-a604-44cf-83ab-15bbb7a73ba0}">
+          <x14:cfRule type="dataBar" id="{ff5fab1e-adcd-4240-9b7c-edb4ae49fc9e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3294,7 +3091,7 @@
           <xm:sqref>K3 K5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{42498afe-372f-4510-803b-a3255cf29d01}">
+          <x14:cfRule type="dataBar" id="{76dab711-fb7a-4738-996a-cbacb6974a57}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3309,7 +3106,7 @@
           <xm:sqref>N3 N6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c693d97f-a889-4ef8-bb61-90f52da70a63}">
+          <x14:cfRule type="dataBar" id="{094a064a-3c03-4018-9028-0f1c8bfc0801}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3321,10 +3118,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M10:M11 M18:M19</xm:sqref>
+          <xm:sqref>M10:M13 M22:M23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a4048b48-6a63-47bd-8eb5-33709c13353f}">
+          <x14:cfRule type="dataBar" id="{d2b7db5d-bf3c-4126-94ba-6104dbdcee9d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3336,10 +3133,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O11 O19</xm:sqref>
+          <xm:sqref>O13 O23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{95179e9f-6ba9-49d0-bda5-57b493f20b9c}">
+          <x14:cfRule type="dataBar" id="{5da44a48-981e-4a03-8221-2233bcd69876}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -3351,7 +3148,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L13 L17</xm:sqref>
+          <xm:sqref>L15 L21</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
